--- a/(2분반)학번_이상욱_마이크로프로세서_재료구매신청서.xlsx
+++ b/(2분반)학번_이상욱_마이크로프로세서_재료구매신청서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5535" windowHeight="2175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20xx136xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9g 미니 서보 모터 SG-90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +88,6 @@
     <t>DHT11 온습도 센서모듈 [SZH-EK024]</t>
   </si>
   <si>
-    <t>PHPoC 아두이노 와이파이 쉴드(P4S-347) 무선랜 연결 / 사물인터넷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.devicemart.co.kr/1128421</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=330739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EVERCOOL EC4020HH05B-2P</t>
   </si>
   <si>
@@ -163,6 +147,21 @@
   </si>
   <si>
     <t>http://www.devicemart.co.kr/1304474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> CLCD-4B216-YG</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1164605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로프로세서 및 실습 - SafeHouse for Reptile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,15 +195,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -303,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +303,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,22 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -639,62 +626,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="7">
+        <v>2013136082</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -724,9 +715,9 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
         <v>1800</v>
       </c>
       <c r="D7" s="2">
@@ -735,8 +726,8 @@
       <c r="E7" s="2">
         <v>3600</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -745,19 +736,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
         <v>4000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>4000</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -766,179 +757,195 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
         <v>6400</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>6400</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
         <v>3300</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <v>6600</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4500</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7300</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7300</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9500</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>9500</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9">
-        <v>4500</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4500</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8">
-        <v>49500</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>49500</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C16" s="4">
+        <v>4480</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4480</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8">
-        <v>7300</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>7300</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2400</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8">
-        <v>9500</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>9500</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4480</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4480</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2400</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2400</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
@@ -958,7 +965,7 @@
       </c>
       <c r="E20" s="1">
         <f>SUM(E7:E19)</f>
-        <v>103280</v>
+        <v>73780</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -979,11 +986,12 @@
     <hyperlink ref="F10" r:id="rId4"/>
     <hyperlink ref="F14" r:id="rId5"/>
     <hyperlink ref="F13" r:id="rId6"/>
-    <hyperlink ref="F12" r:id="rId7"/>
-    <hyperlink ref="F17" r:id="rId8"/>
-    <hyperlink ref="F16" r:id="rId9"/>
-    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F16" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>